--- a/DateBase/orders/dang2_2024-10-14.xlsx
+++ b/DateBase/orders/dang2_2024-10-14.xlsx
@@ -603,6 +603,9 @@
       <c r="C21" t="str">
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -664,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010520102010202040305151015101010200</v>
+        <v>01010520102010202040305151015101010205</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang2_2024-10-14.xlsx
+++ b/DateBase/orders/dang2_2024-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,12 +604,300 @@
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>15</v>
+      </c>
+      <c r="C22" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>16</v>
+      </c>
+      <c r="C23" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>17</v>
+      </c>
+      <c r="C24" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>308_彩星 紫_Tinted Gypso purple_undefined_0.5kg</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>18</v>
+      </c>
+      <c r="C27" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>303_彩星 粉_Tinted Gypso pink_undefined_0.5kg</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>19</v>
+      </c>
+      <c r="C33" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>20</v>
+      </c>
+      <c r="C39" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F44" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>21</v>
+      </c>
+      <c r="C45" t="str">
+        <v>164_调香师_Barista_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>172_入梦_Imagine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>22</v>
+      </c>
+      <c r="C51" t="str">
+        <v>156_摩卡/太妃糖_Toffee_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F51" t="str">
         <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L54"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +955,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010520102010202040305151015101010205</v>
+        <v>0101052010201020204030515101510101020555758531061111110111101219111141111215512010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang2_2024-10-14.xlsx
+++ b/DateBase/orders/dang2_2024-10-14.xlsx
@@ -957,6 +957,9 @@
       <c r="G2" t="str">
         <v>0101052010201020204030515101510101020555758531061111110111101219111141111215512010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
